--- a/data_year/zb/综合/民族自治地方/民族自治地方金融.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方金融.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,130 +448,52 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7905.7892554</v>
+        <v>46621.780239</v>
       </c>
       <c r="C2" t="n">
-        <v>6548.0088124</v>
+        <v>30578.948686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16323.8</v>
+        <v>54671.93975</v>
       </c>
       <c r="C3" t="n">
-        <v>11299.7</v>
+        <v>37299.11681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19897.9</v>
+        <v>64118.389703</v>
       </c>
       <c r="C4" t="n">
-        <v>13419.6</v>
+        <v>44516.930082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24208.775903</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15696.9819</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>30144.331164</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19318.345311</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>37097.90385</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24493.956607</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>46621.780239</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30578.948686</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>54671.93975</v>
-      </c>
-      <c r="C9" t="n">
-        <v>37299.11681</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>64118.389703</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44516.930082</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
           <t>2013年</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B5" t="n">
         <v>72956.766848</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C5" t="n">
         <v>52450.982143</v>
       </c>
     </row>
